--- a/Pre-Entregas/Hardware/Relevamiento_Servidor.xlsx
+++ b/Pre-Entregas/Hardware/Relevamiento_Servidor.xlsx
@@ -27,9 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
-  <si>
-    <t>RELEVAMIENTO SERVIDOR</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="91">
+  <si>
+    <t>PRESUPUETO SERVIDOR</t>
   </si>
   <si>
     <t>Hecho por:</t>
@@ -44,22 +44,28 @@
     <t>18/08/2024</t>
   </si>
   <si>
+    <t>Placa Madre</t>
+  </si>
+  <si>
+    <t>Marca</t>
+  </si>
+  <si>
+    <t>ASUS</t>
+  </si>
+  <si>
+    <t>Modelo</t>
+  </si>
+  <si>
+    <t>P11C-X</t>
+  </si>
+  <si>
     <t>PERIFERICOS</t>
   </si>
   <si>
-    <t>Placa Madre</t>
-  </si>
-  <si>
-    <t>Marca</t>
-  </si>
-  <si>
-    <t>ASUS</t>
-  </si>
-  <si>
-    <t>Modelo</t>
-  </si>
-  <si>
-    <t>P11C-X</t>
+    <t>Observaciónes</t>
+  </si>
+  <si>
+    <t>Tipo de zócalo: LGA 1151, memoria ddr4 sdram, tarjeta de red integrada</t>
   </si>
   <si>
     <t>Monitor</t>
@@ -71,10 +77,10 @@
     <t>N223</t>
   </si>
   <si>
-    <t>Observaciónes</t>
-  </si>
-  <si>
-    <t>Tipo de zócalo: LGA 1151, memoria ddr4 sdram, tarjeta de red integrada</t>
+    <t>LINK</t>
+  </si>
+  <si>
+    <t>ASUSP11C-X</t>
   </si>
   <si>
     <t>Resolución</t>
@@ -89,21 +95,15 @@
     <t>HDMI</t>
   </si>
   <si>
-    <t>LINK</t>
-  </si>
-  <si>
-    <t>https://www.ebay.com/itm/226238158649?chn=ps&amp;mkevt=1&amp;mkcid=28</t>
+    <t>Precio</t>
+  </si>
+  <si>
+    <t>US $286.90/ARS $270617,22</t>
   </si>
   <si>
     <t>https://www.mercadolibre.com.ar/monitor-hp-215-22-n223-vga-hdmi-14-60hz-1080p-5ms-vesa-color-negro/p/MLA15982216#polycard_client=search-nordic&amp;searchVariation=MLA15982216&amp;position=1&amp;search_layout=grid&amp;type=product&amp;tracking_id=e34fc394-5f8d-474d-a824-e000122f396e&amp;wid=MLA1375011285&amp;sid=search</t>
   </si>
   <si>
-    <t>Precio</t>
-  </si>
-  <si>
-    <t>US $286.90/ARS $270617,22</t>
-  </si>
-  <si>
     <t>CPU</t>
   </si>
   <si>
@@ -113,6 +113,15 @@
     <t>Xeon E-2288G</t>
   </si>
   <si>
+    <t>8 núcleos 16 hilos, grafica + cooler</t>
+  </si>
+  <si>
+    <t>Frecuencia</t>
+  </si>
+  <si>
+    <t>3,7GHz</t>
+  </si>
+  <si>
     <t>Teclado</t>
   </si>
   <si>
@@ -122,13 +131,7 @@
     <t>K120</t>
   </si>
   <si>
-    <t>8 núcleos 16 hilos, grafica + cooler</t>
-  </si>
-  <si>
-    <t>Frecuencia</t>
-  </si>
-  <si>
-    <t>3,7GHz</t>
+    <t>https://www.ebay.com/itm/204585030481?chn=ps&amp;mkevt=1&amp;mkcid=28</t>
   </si>
   <si>
     <t>Tipo</t>
@@ -140,15 +143,12 @@
     <t>USB</t>
   </si>
   <si>
-    <t>https://www.ebay.com/itm/204585030481?chn=ps&amp;mkevt=1&amp;mkcid=28</t>
+    <t>US $680.00/ARS $641752,92</t>
   </si>
   <si>
     <t>https://articulo.mercadolibre.com.ar/MLA-744653179-teclado-logitech-k120-usb-espanol-resistente-antiderrames-_JM?searchVariation=46251447439#polycard_client=search-nordic&amp;searchVariation=46251447439&amp;position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=d7a5eab9-f74c-45d9-a232-5750c9d42bba</t>
   </si>
   <si>
-    <t>US $680.00/ARS $641752,92</t>
-  </si>
-  <si>
     <t>Memoria RAM</t>
   </si>
   <si>
@@ -158,39 +158,39 @@
     <t>KTL-TS426E/32G</t>
   </si>
   <si>
+    <t>Capacidad</t>
+  </si>
+  <si>
+    <t>32GB</t>
+  </si>
+  <si>
+    <t>Tipo de módulo</t>
+  </si>
+  <si>
+    <t>DDR 4 ECC Module</t>
+  </si>
+  <si>
     <t>Mouse</t>
   </si>
   <si>
     <t>M110</t>
   </si>
   <si>
-    <t>Capacidad</t>
-  </si>
-  <si>
-    <t>32GB</t>
-  </si>
-  <si>
-    <t>Tipo de módulo</t>
-  </si>
-  <si>
-    <t>DDR 4 ECC Module</t>
+    <t>Aplicación para servidores</t>
+  </si>
+  <si>
+    <t>2666MHz</t>
   </si>
   <si>
     <t>Convencional</t>
   </si>
   <si>
-    <t>Aplicación para servidores</t>
-  </si>
-  <si>
-    <t>2666MHz</t>
+    <t>https://www.mercadolibre.com.ar/memoria-ram-kingston-32gb-2666mhz-ddr4-ecc-module/p/MLA36602333#polycard_client=search-nordic&amp;searchVariation=MLA36602333&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=570a153a-5ca4-44b2-ae53-f8f010ef2d21&amp;wid=MLA1769959172&amp;sid=search</t>
   </si>
   <si>
     <t>https://www.mercadolibre.com.ar/mouse-logitech-m110-azul/p/MLA19079405#polycard_client=search-nordic&amp;searchVariation=MLA19079405&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=80f03902-1790-411a-9e83-51865ce540c2&amp;wid=MLA1375584401&amp;sid=search</t>
   </si>
   <si>
-    <t>https://www.mercadolibre.com.ar/memoria-ram-kingston-32gb-2666mhz-ddr4-ecc-module/p/MLA36602333#polycard_client=search-nordic&amp;searchVariation=MLA36602333&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=570a153a-5ca4-44b2-ae53-f8f010ef2d21&amp;wid=MLA1769959172&amp;sid=search</t>
-  </si>
-  <si>
     <t>Disco rígido</t>
   </si>
   <si>
@@ -213,9 +213,6 @@
   </si>
   <si>
     <t>https://www.mercadolibre.com.ar/disco-rigido-4tb-seagate-35-pc-nas-ironwolf-st4000vn006-color-plateado/p/MLA27810933?offer_type=BEST_PRICE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Fuente</t>
@@ -485,19 +482,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.4"/>
+        <fgColor theme="0" tint="-0.15"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,19 +512,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
+        <fgColor theme="6" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF5959"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1119,22 +1116,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1143,7 +1134,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1152,14 +1143,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1167,11 +1167,8 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1185,24 +1182,24 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1212,13 +1209,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1227,7 +1224,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1236,7 +1233,7 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
@@ -1269,7 +1266,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1287,54 +1284,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Coma" xfId="1" builtinId="3"/>
+    <cellStyle name="Moneda" xfId="2" builtinId="4"/>
+    <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
+    <cellStyle name="Coma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Moneda [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hipervínculo" xfId="6" builtinId="8"/>
+    <cellStyle name="Hipervínculo visitado" xfId="7" builtinId="9"/>
+    <cellStyle name="Nota" xfId="8" builtinId="10"/>
+    <cellStyle name="Texto de advertencia" xfId="9" builtinId="11"/>
+    <cellStyle name="Título" xfId="10" builtinId="15"/>
+    <cellStyle name="Texto explicativo" xfId="11" builtinId="53"/>
+    <cellStyle name="Título 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Título 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Título 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Título 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Entrada" xfId="16" builtinId="20"/>
+    <cellStyle name="Salida" xfId="17" builtinId="21"/>
+    <cellStyle name="Cálculo" xfId="18" builtinId="22"/>
+    <cellStyle name="Celda de comprobación" xfId="19" builtinId="23"/>
+    <cellStyle name="Celda vinculada" xfId="20" builtinId="24"/>
     <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="Correcto" xfId="22" builtinId="26"/>
+    <cellStyle name="Incorrecto" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="24" builtinId="28"/>
+    <cellStyle name="Énfasis1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Énfasis1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Énfasis1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Énfasis1" xfId="28" builtinId="32"/>
+    <cellStyle name="Énfasis2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Énfasis2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Énfasis2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Énfasis2" xfId="32" builtinId="36"/>
+    <cellStyle name="Énfasis3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Énfasis3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Énfasis3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Énfasis3" xfId="36" builtinId="40"/>
+    <cellStyle name="Énfasis4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Énfasis4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Énfasis4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Énfasis4" xfId="40" builtinId="44"/>
+    <cellStyle name="Énfasis5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Énfasis5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Énfasis5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Énfasis5" xfId="44" builtinId="48"/>
+    <cellStyle name="Énfasis6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Énfasis6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Énfasis6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Énfasis6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1611,8 +1608,8 @@
   <sheetPr/>
   <dimension ref="A1:W42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1627,6 +1624,7 @@
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="15.5047619047619" customWidth="1"/>
     <col min="10" max="10" width="25.9142857142857" customWidth="1"/>
+    <col min="11" max="11" width="29.9333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1651,148 +1649,133 @@
       <c r="I2" s="3"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="29" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="11" t="s">
+      <c r="G5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="I5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="11" t="s">
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="B6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="60" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="H6" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="15" t="s">
+      <c r="I6" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="J6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="17" t="s">
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="21">
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:23">
+      <c r="A8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="22">
         <v>199999</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:23">
-      <c r="A8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" s="29" t="s">
-        <v>30</v>
-      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
       <c r="P8"/>
       <c r="Q8"/>
       <c r="R8"/>
@@ -1803,238 +1786,253 @@
       <c r="W8"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="11" t="s">
+      <c r="G9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="I9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="11" t="s">
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="C10" s="24"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="13" t="s">
+      <c r="H10" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="15" t="s">
+      <c r="I10" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="J10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="17" t="s">
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="25" t="s">
         <v>38</v>
-      </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>39</v>
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
       <c r="E11" s="27"/>
-      <c r="F11" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="21">
+      <c r="F11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="22">
         <v>11459</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="10" t="s">
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="7"/>
+      <c r="B13" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="9" t="s">
+      <c r="C13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J12" s="29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="9"/>
-      <c r="B13" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="33" t="s">
+      <c r="E14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="9" t="s">
+      <c r="F14" s="33"/>
+      <c r="G14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="I14" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="J14" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="34" t="s">
         <v>52</v>
-      </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>53</v>
       </c>
       <c r="C15" s="35"/>
       <c r="D15" s="35"/>
       <c r="E15" s="36"/>
-      <c r="F15" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="37">
-        <v>7399.99</v>
-      </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="38">
+      <c r="F15" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="37">
         <v>175087.44</v>
       </c>
       <c r="C16" s="35"/>
       <c r="D16" s="35"/>
       <c r="E16" s="36"/>
+      <c r="F16" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="38">
+        <v>7399.99</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="9" t="s">
+      <c r="B17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="9"/>
-      <c r="B18" s="11" t="s">
-        <v>45</v>
+      <c r="A18" s="7"/>
+      <c r="B18" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="C18" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="9" t="s">
+      <c r="D18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="11" t="s">
-        <v>14</v>
+      <c r="A19" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="B19" s="41" t="s">
         <v>59</v>
       </c>
       <c r="C19" s="41"/>
       <c r="D19" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="15" t="s">
-        <v>20</v>
+    <row r="20" spans="1:5">
+      <c r="A20" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="B20" s="34" t="s">
         <v>61</v>
@@ -2042,13 +2040,10 @@
       <c r="C20" s="35"/>
       <c r="D20" s="43"/>
       <c r="E20" s="36"/>
-      <c r="H20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="20" t="s">
-        <v>23</v>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="B21" s="44">
         <v>168999</v>
@@ -2056,55 +2051,53 @@
       <c r="C21" s="35"/>
       <c r="D21" s="43"/>
       <c r="E21" s="36"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="5" t="s">
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="9" t="s">
+      <c r="D22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="9" t="s">
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="11" t="s">
+      <c r="B23" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="C23" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="D23" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="34" t="s">
         <v>69</v>
-      </c>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>70</v>
       </c>
       <c r="C24" s="35"/>
       <c r="D24" s="35"/>
       <c r="E24" s="36"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="20" t="s">
-        <v>23</v>
+      <c r="A25" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="B25" s="44">
         <v>117599</v>
@@ -2115,46 +2108,46 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="23" t="s">
+      <c r="D26" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="46" t="s">
         <v>72</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="46" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="48" t="s">
         <v>74</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="48" t="s">
-        <v>75</v>
       </c>
       <c r="C28" s="49"/>
       <c r="D28" s="49"/>
       <c r="E28" s="50"/>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="20" t="s">
-        <v>23</v>
+    <row r="29" spans="1:5">
+      <c r="A29" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="B29" s="51">
         <v>233840.25</v>
@@ -2162,48 +2155,47 @@
       <c r="C29" s="52"/>
       <c r="D29" s="52"/>
       <c r="E29" s="53"/>
-      <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="9" t="s">
+      <c r="D30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="28" t="s">
         <v>77</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>78</v>
       </c>
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="47" t="s">
+      <c r="D31" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="E31" s="7"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="34" t="s">
         <v>81</v>
-      </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>82</v>
       </c>
       <c r="C32" s="54"/>
       <c r="D32" s="54"/>
@@ -2212,8 +2204,8 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="20" t="s">
-        <v>23</v>
+      <c r="A33" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="B33" s="51">
         <v>346735</v>
@@ -2226,54 +2218,54 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="9" t="s">
+      <c r="D34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="28" t="s">
         <v>84</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="29" t="s">
-        <v>85</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="47" t="s">
+      <c r="D35" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E35" s="9"/>
+      <c r="E35" s="7"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="15" t="s">
-        <v>20</v>
+      <c r="A36" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="B36" s="34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
       <c r="E36" s="36"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="20" t="s">
-        <v>23</v>
+      <c r="A37" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="B37" s="51">
         <v>539818</v>
@@ -2284,7 +2276,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="57" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B41" s="58">
         <v>1954630.39</v>
@@ -2292,7 +2284,7 @@
     </row>
     <row r="42" ht="30" spans="1:2">
       <c r="A42" s="59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B42" s="58">
         <v>2713306.38</v>
@@ -2301,22 +2293,22 @@
   </sheetData>
   <mergeCells count="31">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="F4:J4"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
-    <mergeCell ref="G6:J6"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G8:J8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:E10"/>
-    <mergeCell ref="G10:J10"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G12:J12"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="G14:J14"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="B16:E16"/>
+    <mergeCell ref="G16:J16"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="B21:E21"/>
@@ -2341,22 +2333,22 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f466dba4-86f5-4765-aed1-16bb4df6c1f0}</x14:id>
+          <x14:id>{b75ea42e-1de0-4adf-ae14-9dd06e658870}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="https://www.ebay.com/itm/226238158649?chn=ps&amp;mkevt=1&amp;mkcid=28"/>
+    <hyperlink ref="B6" r:id="rId1" display="ASUSP11C-X"/>
     <hyperlink ref="B10" r:id="rId2" display="https://www.ebay.com/itm/204585030481?chn=ps&amp;mkevt=1&amp;mkcid=28"/>
     <hyperlink ref="B15" r:id="rId3" display="https://www.mercadolibre.com.ar/memoria-ram-kingston-32gb-2666mhz-ddr4-ecc-module/p/MLA36602333#polycard_client=search-nordic&amp;searchVariation=MLA36602333&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=570a153a-5ca4-44b2-ae53-f8f010ef2d21&amp;wid=MLA1769959172&amp;sid=search"/>
     <hyperlink ref="B20" r:id="rId4" display="https://www.mercadolibre.com.ar/disco-rigido-4tb-seagate-35-pc-nas-ironwolf-st4000vn006-color-plateado/p/MLA27810933?offer_type=BEST_PRICE"/>
     <hyperlink ref="B24" r:id="rId5" display="https://www.mercadolibre.com.ar/fuente-de-alimentacion-para-pc-corsair-cx-series-cx650-650w-black-100v240v/p/MLA8798868#polycard_client=search-nordic&amp;searchVariation=MLA8798868&amp;position=8&amp;search_layout=grid&amp;type=product&amp;tracking_id=1ce80898-2fd9-4454-8e37-27f44ea40858&amp;wid=MLA1427471973&amp;sid=search"/>
     <hyperlink ref="B28" r:id="rId6" display="https://articulo.mercadolibre.com.ar/MLA-1113168172-gabinete-fractal-design-define-7-compact-templado-claro-_JM#polycard_client=search-nordic&amp;position=5&amp;search_layout=stack&amp;type=item&amp;tracking_id=868b0a7f-4be3-4c1d-8a45-0403c951e311"/>
     <hyperlink ref="B32" r:id="rId7" display="https://articulo.mercadolibre.com.ar/MLA-1397727267-nzxt-kraken-240-rl-kn240-b1-enfriador-liquido-de-_JM#polycard_client=search-nordic&amp;position=13&amp;search_layout=grid&amp;type=item&amp;tracking_id=63c31151-8d1c-4660-882c-a38351e515bf"/>
-    <hyperlink ref="G6" r:id="rId8" display="https://www.mercadolibre.com.ar/monitor-hp-215-22-n223-vga-hdmi-14-60hz-1080p-5ms-vesa-color-negro/p/MLA15982216#polycard_client=search-nordic&amp;searchVariation=MLA15982216&amp;position=1&amp;search_layout=grid&amp;type=product&amp;tracking_id=e34fc394-5f8d-474d-a824-e000122f396e&amp;wid=MLA1375011285&amp;sid=search"/>
-    <hyperlink ref="G10" r:id="rId9" display="https://articulo.mercadolibre.com.ar/MLA-744653179-teclado-logitech-k120-usb-espanol-resistente-antiderrames-_JM?searchVariation=46251447439#polycard_client=search-nordic&amp;searchVariation=46251447439&amp;position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=d7a5eab9-f74c-45d9-a232-5750c9d42bba"/>
-    <hyperlink ref="G14" r:id="rId10" display="https://www.mercadolibre.com.ar/mouse-logitech-m110-azul/p/MLA19079405#polycard_client=search-nordic&amp;searchVariation=MLA19079405&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=80f03902-1790-411a-9e83-51865ce540c2&amp;wid=MLA1375584401&amp;sid=search"/>
+    <hyperlink ref="G7" r:id="rId8" display="https://www.mercadolibre.com.ar/monitor-hp-215-22-n223-vga-hdmi-14-60hz-1080p-5ms-vesa-color-negro/p/MLA15982216#polycard_client=search-nordic&amp;searchVariation=MLA15982216&amp;position=1&amp;search_layout=grid&amp;type=product&amp;tracking_id=e34fc394-5f8d-474d-a824-e000122f396e&amp;wid=MLA1375011285&amp;sid=search"/>
+    <hyperlink ref="G11" r:id="rId9" display="https://articulo.mercadolibre.com.ar/MLA-744653179-teclado-logitech-k120-usb-espanol-resistente-antiderrames-_JM?searchVariation=46251447439#polycard_client=search-nordic&amp;searchVariation=46251447439&amp;position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=d7a5eab9-f74c-45d9-a232-5750c9d42bba"/>
+    <hyperlink ref="G15" r:id="rId10" display="https://www.mercadolibre.com.ar/mouse-logitech-m110-azul/p/MLA19079405#polycard_client=search-nordic&amp;searchVariation=MLA19079405&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=80f03902-1790-411a-9e83-51865ce540c2&amp;wid=MLA1375584401&amp;sid=search"/>
     <hyperlink ref="B36" r:id="rId11" display="https://articulo.mercadolibre.com.ar/MLA-1765984048-apc-back-ups-pro-br900g-ar-230v-negro-_JM#polycard_client=search-nordic&amp;position=4&amp;search_layout=grid&amp;type=item&amp;tracking_id=42bdac88-7e92-4783-8a2e-47a8b7c4591e"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.298611111111111" footer="0.298611111111111"/>
@@ -2366,7 +2358,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f466dba4-86f5-4765-aed1-16bb4df6c1f0}">
+          <x14:cfRule type="dataBar" id="{b75ea42e-1de0-4adf-ae14-9dd06e658870}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
